--- a/WBSのひな型.xlsx
+++ b/WBSのひな型.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cre\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAFF9CA1-A65A-4C53-BE9D-B34374B0DC10}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00D55A6B-A611-47BC-839E-F3F9100467C3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8580" yWindow="1668" windowWidth="21600" windowHeight="11292" xr2:uid="{3B4AC93D-F124-47D8-88BE-368F80A06834}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
   <si>
     <t>タスク</t>
     <phoneticPr fontId="1"/>
@@ -209,6 +209,9 @@
       <t>シュウカン</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>•健康管理をサポートするWebサービスのシステム</t>
   </si>
 </sst>
 </file>
@@ -651,10 +654,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AE82B5B-7509-4E2A-A973-D9D8AB997021}">
-  <dimension ref="B2:D14"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -663,7 +666,12 @@
     <col min="3" max="4" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
@@ -674,7 +682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
@@ -685,7 +693,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B4" s="4"/>
       <c r="C4" s="2" t="s">
         <v>9</v>
@@ -694,7 +702,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
@@ -705,7 +713,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B6" s="4"/>
       <c r="C6" s="2" t="s">
         <v>11</v>
@@ -714,7 +722,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
@@ -725,7 +733,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B8" s="4"/>
       <c r="C8" s="2" t="s">
         <v>13</v>
@@ -734,7 +742,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B9" s="3" t="s">
         <v>6</v>
       </c>
@@ -745,7 +753,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B10" s="4"/>
       <c r="C10" s="2" t="s">
         <v>15</v>
@@ -754,7 +762,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B11" s="3" t="s">
         <v>7</v>
       </c>
@@ -765,7 +773,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B12" s="5"/>
       <c r="C12" s="2" t="s">
         <v>17</v>
@@ -774,7 +782,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B13" s="5"/>
       <c r="C13" s="2" t="s">
         <v>18</v>
@@ -783,7 +791,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B14" s="4"/>
       <c r="C14" s="2" t="s">
         <v>19</v>
